--- a/teaching/traditional_assets/database/data/canada/canada_tobacco.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_tobacco.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,26 +590,23 @@
           <t>Tobacco</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.238</v>
-      </c>
       <c r="G2">
-        <v>-22.01086956521739</v>
+        <v>289.5</v>
       </c>
       <c r="H2">
-        <v>-22.01086956521739</v>
+        <v>295</v>
       </c>
       <c r="I2">
-        <v>-18.96739130434783</v>
+        <v>317</v>
       </c>
       <c r="J2">
-        <v>-18.96739130434783</v>
+        <v>317</v>
       </c>
       <c r="K2">
-        <v>-3.65</v>
+        <v>-2.38</v>
       </c>
       <c r="L2">
-        <v>-19.83695652173913</v>
+        <v>1190</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.148</v>
+        <v>5.441</v>
       </c>
       <c r="V2">
-        <v>0.0398921832884097</v>
+        <v>0.08510871265446582</v>
       </c>
       <c r="W2">
-        <v>-1.31294964028777</v>
+        <v>-0.519039807206527</v>
       </c>
       <c r="X2">
-        <v>0.06421262134127556</v>
+        <v>0.03554283097828655</v>
       </c>
       <c r="Y2">
-        <v>-1.377162261629045</v>
+        <v>-0.5545826381848136</v>
       </c>
       <c r="Z2">
-        <v>0.04546577711885347</v>
+        <v>0.002560819462227913</v>
       </c>
       <c r="AA2">
-        <v>-0.8623671855695578</v>
+        <v>-0.8107416879795395</v>
       </c>
       <c r="AB2">
-        <v>0.06421262134127556</v>
+        <v>0.03575198178524969</v>
       </c>
       <c r="AC2">
-        <v>-0.9265798069108334</v>
+        <v>-0.8464936697647891</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.293</v>
       </c>
       <c r="AG2">
-        <v>-0.148</v>
+        <v>-5.148</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.004562228485122152</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.04903765690376569</v>
       </c>
       <c r="AJ2">
-        <v>-0.04154969118472768</v>
+        <v>-0.08757782994794325</v>
       </c>
       <c r="AK2">
-        <v>-0.008432087511394713</v>
+        <v>-9.640449438202234</v>
       </c>
       <c r="AL2">
-        <v>0.064</v>
+        <v>0.028</v>
       </c>
       <c r="AM2">
-        <v>0.058</v>
+        <v>0.026</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-0.5907258064516129</v>
       </c>
       <c r="AO2">
-        <v>-54.53125</v>
+        <v>-22.64285714285714</v>
       </c>
       <c r="AP2">
-        <v>0.04289855072463768</v>
+        <v>10.37903225806452</v>
       </c>
       <c r="AQ2">
-        <v>-60.17241379310345</v>
+        <v>-24.38461538461538</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NewLeaf Brands Inc. (CNSX:NLB)</t>
+          <t>Red Light Holland Corp. (CNSX:TRIP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,26 +715,23 @@
           <t>Tobacco</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.238</v>
-      </c>
       <c r="G3">
-        <v>-22.01086956521739</v>
+        <v>-5.5</v>
       </c>
       <c r="H3">
-        <v>-22.01086956521739</v>
+        <v>-0</v>
       </c>
       <c r="I3">
-        <v>-18.96739130434783</v>
+        <v>-0</v>
       </c>
       <c r="J3">
-        <v>-18.96739130434783</v>
+        <v>-0</v>
       </c>
       <c r="K3">
-        <v>-3.65</v>
+        <v>-1.25</v>
       </c>
       <c r="L3">
-        <v>-19.83695652173913</v>
+        <v>625</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +755,174 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.148</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>0.0398921832884097</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="W3">
-        <v>-1.31294964028777</v>
+        <v>0.6188118811881188</v>
       </c>
       <c r="X3">
-        <v>0.06421262134127556</v>
+        <v>0.03533994470231133</v>
       </c>
       <c r="Y3">
-        <v>-1.377162261629045</v>
+        <v>0.5834719364858074</v>
       </c>
       <c r="Z3">
-        <v>0.04546577711885347</v>
+        <v>0.001706484641638225</v>
       </c>
       <c r="AA3">
-        <v>-0.8623671855695578</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.06421262134127556</v>
+        <v>0.03531845015025002</v>
       </c>
       <c r="AC3">
-        <v>-0.9265798069108334</v>
+        <v>-0.03531845015025002</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="AG3">
-        <v>-0.148</v>
+        <v>-4.911</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.001615567536168745</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.01679562181543687</v>
       </c>
       <c r="AJ3">
-        <v>-0.04154969118472768</v>
+        <v>-0.09804547904729581</v>
       </c>
       <c r="AK3">
-        <v>-0.008432087511394713</v>
+        <v>-16.42474916387958</v>
       </c>
       <c r="AL3">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.058</v>
-      </c>
-      <c r="AN3">
-        <v>-0</v>
-      </c>
-      <c r="AO3">
-        <v>-54.53125</v>
-      </c>
-      <c r="AP3">
-        <v>0.04289855072463768</v>
+        <v>-0.002</v>
       </c>
       <c r="AQ3">
-        <v>-60.17241379310345</v>
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Harrys Manufacturing Inc. (CNSX:HARY)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>-1.13</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.441</v>
+      </c>
+      <c r="V4">
+        <v>0.04938409854423292</v>
+      </c>
+      <c r="W4">
+        <v>-1.656891495601173</v>
+      </c>
+      <c r="X4">
+        <v>0.03574571725426177</v>
+      </c>
+      <c r="Y4">
+        <v>-1.692637212855434</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-1.621483375959079</v>
+      </c>
+      <c r="AB4">
+        <v>0.03618551342024936</v>
+      </c>
+      <c r="AC4">
+        <v>-1.657668889379328</v>
+      </c>
+      <c r="AD4">
+        <v>0.204</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.204</v>
+      </c>
+      <c r="AG4">
+        <v>-0.237</v>
+      </c>
+      <c r="AH4">
+        <v>0.02233413619443836</v>
+      </c>
+      <c r="AI4">
+        <v>0.3017751479289941</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.02726331531116991</v>
+      </c>
+      <c r="AK4">
+        <v>-1.008510638297873</v>
+      </c>
+      <c r="AL4">
+        <v>0.028</v>
+      </c>
+      <c r="AM4">
+        <v>0.028</v>
+      </c>
+      <c r="AN4">
+        <v>-0.4112903225806451</v>
+      </c>
+      <c r="AO4">
+        <v>-22.64285714285714</v>
+      </c>
+      <c r="AP4">
+        <v>0.4778225806451613</v>
+      </c>
+      <c r="AQ4">
+        <v>-22.64285714285714</v>
       </c>
     </row>
   </sheetData>
